--- a/common/src/main/resources/excel/demo.xlsx
+++ b/common/src/main/resources/excel/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A\Ethan\common\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -504,6 +504,20 @@
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
